--- a/results.xlsx
+++ b/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -645,6 +645,21 @@
         <v>22754.73088783468</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>연천인율</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>재해 발생 건수: 50, 연평균 근로자 수: 3</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>16666.66666666667</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
